--- a/BiDAF/result/final_combined_result.xlsx
+++ b/BiDAF/result/final_combined_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngtze\Desktop\BT4103\CAPSTONE\BiDAF\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7C926F-E6E4-4814-8524-345F16FA5339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8161C59E-07AF-40BB-8A0D-534BCF52244C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7536" yWindow="1692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Batch_Size</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Test_Loss</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -105,6 +108,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,495 +450,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4"/>
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.41</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.53</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.66</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4"/>
+      <c r="C3">
         <v>32</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.53</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.65</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.32</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4"/>
+      <c r="C4">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.68</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.75</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4"/>
+      <c r="C5">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.71</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3.48</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4"/>
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.72</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3.3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4"/>
+      <c r="C7">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.61</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.72</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4"/>
+      <c r="C8">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.61</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.72</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.05</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4"/>
+      <c r="C9">
         <v>32</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.63</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.74</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.96</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3.15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4"/>
+      <c r="C10">
         <v>32</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.63</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.74</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.88</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4"/>
+      <c r="C11">
         <v>32</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.64</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.74</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.81</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2">
         <v>64</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.32</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>7.18</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>6.59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2">
         <v>64</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>0.49</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>0.62</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>4.96</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>4.07</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2">
         <v>64</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>0.53</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>0.66</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>3.89</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>3.84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2">
         <v>64</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>0.69</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.52</v>
       </c>
       <c r="G15" s="2">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2">
         <v>64</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>0.6</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>0.72</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>3.29</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>3.32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2">
         <v>64</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>0.61</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>0.72</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>3.13</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>3.27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2">
         <v>64</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>0.62</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>0.73</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>3.19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2">
         <v>64</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>0.62</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>0.74</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>2.89</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>3.19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>8</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2">
         <v>64</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>9</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>0.63</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>0.74</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>2.79</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>3.19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>9</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2">
         <v>64</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>0.64</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>0.75</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>2.7</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>3.14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>